--- a/Basic function/Data Validation.xlsx
+++ b/Basic function/Data Validation.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Excel_tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Excel\Basic function\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="251">
   <si>
     <t>Robert</t>
   </si>
@@ -705,6 +707,78 @@
   </si>
   <si>
     <t>2. DOB between 10 Jan 1999 to 30 Dec  2024</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Marathahalli</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Bellandur</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>BTM</t>
+  </si>
+  <si>
+    <t>Whitefield</t>
+  </si>
+  <si>
+    <t>Koramangla</t>
+  </si>
+  <si>
+    <t>Park Street</t>
+  </si>
+  <si>
+    <t>Park Circus</t>
+  </si>
+  <si>
+    <t>Hestings</t>
+  </si>
+  <si>
+    <t>Salt Lake</t>
+  </si>
+  <si>
+    <t>Dwarka</t>
+  </si>
+  <si>
+    <t>Karolbagh</t>
+  </si>
+  <si>
+    <t>Lakshminagar</t>
+  </si>
+  <si>
+    <t>Rajib Chowk</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Nasik</t>
+  </si>
+  <si>
+    <t>1. Name should accept 15 characters</t>
+  </si>
+  <si>
+    <t>2. DOB between 10 Jan 1990 to 30 Dec 1998</t>
   </si>
 </sst>
 </file>
@@ -712,9 +786,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,8 +817,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,8 +859,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -793,11 +901,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -813,12 +959,32 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1099,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1297,7 @@
       <c r="A2" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3">
         <v>500000</v>
@@ -1148,7 +1314,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>41274</v>
       </c>
       <c r="C3" s="3"/>
@@ -1167,7 +1333,7 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>41275</v>
       </c>
       <c r="C4" s="3"/>
@@ -1177,20 +1343,20 @@
         <f t="shared" si="0"/>
         <v>John@gmail.com</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>41276</v>
       </c>
       <c r="C5" s="3"/>
@@ -1206,7 +1372,7 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>41277</v>
       </c>
       <c r="C6" s="3"/>
@@ -1216,20 +1382,20 @@
         <f t="shared" si="0"/>
         <v>William@gmail.com</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>36511</v>
       </c>
       <c r="C7" s="3"/>
@@ -1244,7 +1410,7 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1252,21 +1418,21 @@
         <f t="shared" si="0"/>
         <v>Joseph@gmail.com</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>36210</v>
       </c>
       <c r="C9" s="3"/>
@@ -1281,7 +1447,7 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1289,21 +1455,21 @@
         <f t="shared" si="0"/>
         <v>Christopher@gmail.com</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1316,7 +1482,7 @@
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>45303</v>
       </c>
       <c r="C12" s="3"/>
@@ -1326,21 +1492,21 @@
         <f t="shared" si="0"/>
         <v>Daniel@gmail.com</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>45304</v>
       </c>
       <c r="C13" s="3"/>
@@ -1355,7 +1521,7 @@
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>45305</v>
       </c>
       <c r="C14" s="3"/>
@@ -1370,7 +1536,7 @@
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>45306</v>
       </c>
       <c r="C15" s="3"/>
@@ -1385,7 +1551,7 @@
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1398,7 +1564,7 @@
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1411,7 +1577,7 @@
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1420,7 +1586,7 @@
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1429,7 +1595,7 @@
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1438,7 +1604,7 @@
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1447,7 +1613,7 @@
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1456,7 +1622,7 @@
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1465,7 +1631,7 @@
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1474,7 +1640,7 @@
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1483,7 +1649,7 @@
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1492,7 +1658,7 @@
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1501,7 +1667,7 @@
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1510,7 +1676,7 @@
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1519,7 +1685,7 @@
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1528,7 +1694,7 @@
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1537,7 +1703,7 @@
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1546,7 +1712,7 @@
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1555,7 +1721,7 @@
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="8"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1564,7 +1730,7 @@
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="8"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1573,7 +1739,7 @@
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1582,7 +1748,7 @@
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="8"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1591,7 +1757,7 @@
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="8"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1600,7 +1766,7 @@
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="8"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1609,7 +1775,7 @@
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="8"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1618,7 +1784,7 @@
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="8"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1627,7 +1793,7 @@
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="8"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1636,7 +1802,7 @@
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="8"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1645,7 +1811,7 @@
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="8"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1654,7 +1820,7 @@
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="8"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1663,7 +1829,7 @@
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="8"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -1672,7 +1838,7 @@
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="8"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -1681,7 +1847,7 @@
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="8"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -1690,7 +1856,7 @@
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="8"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -1699,7 +1865,7 @@
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="8"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -1708,7 +1874,7 @@
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="8"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -1717,7 +1883,7 @@
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -1726,7 +1892,7 @@
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -1735,7 +1901,7 @@
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="8"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -1744,7 +1910,7 @@
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -1753,7 +1919,7 @@
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="8"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -1762,7 +1928,7 @@
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -1771,7 +1937,7 @@
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="8"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -1780,7 +1946,7 @@
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -1789,7 +1955,7 @@
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="8"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -1798,7 +1964,7 @@
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="8"/>
+      <c r="B61" s="7"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -1807,7 +1973,7 @@
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="8"/>
+      <c r="B62" s="7"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -1816,7 +1982,7 @@
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="8"/>
+      <c r="B63" s="7"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -1825,7 +1991,7 @@
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="8"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -1834,7 +2000,7 @@
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="8"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -1843,7 +2009,7 @@
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="8"/>
+      <c r="B66" s="7"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -1852,7 +2018,7 @@
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="8"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -1861,7 +2027,7 @@
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="8"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -1870,7 +2036,7 @@
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="8"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -1879,7 +2045,7 @@
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="8"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -1888,7 +2054,7 @@
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="8"/>
+      <c r="B71" s="7"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -1897,7 +2063,7 @@
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="8"/>
+      <c r="B72" s="7"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -1906,7 +2072,7 @@
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="8"/>
+      <c r="B73" s="7"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -1915,7 +2081,7 @@
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="8"/>
+      <c r="B74" s="7"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -1924,7 +2090,7 @@
       <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="8"/>
+      <c r="B75" s="7"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -1933,7 +2099,7 @@
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="8"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -1942,7 +2108,7 @@
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="8"/>
+      <c r="B77" s="7"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -1951,7 +2117,7 @@
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="8"/>
+      <c r="B78" s="7"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -1960,7 +2126,7 @@
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="8"/>
+      <c r="B79" s="7"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -1969,7 +2135,7 @@
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="8"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -1978,7 +2144,7 @@
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="8"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -1987,7 +2153,7 @@
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="8"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -1996,7 +2162,7 @@
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="7"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -2005,7 +2171,7 @@
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="8"/>
+      <c r="B84" s="7"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -2014,7 +2180,7 @@
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="8"/>
+      <c r="B85" s="7"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -2023,7 +2189,7 @@
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B86" s="8"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -2032,7 +2198,7 @@
       <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B87" s="8"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -2041,7 +2207,7 @@
       <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B88" s="8"/>
+      <c r="B88" s="7"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -2050,7 +2216,7 @@
       <c r="A89" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B89" s="8"/>
+      <c r="B89" s="7"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -2059,7 +2225,7 @@
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B90" s="8"/>
+      <c r="B90" s="7"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -2068,7 +2234,7 @@
       <c r="A91" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B91" s="8"/>
+      <c r="B91" s="7"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -2077,7 +2243,7 @@
       <c r="A92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B92" s="8"/>
+      <c r="B92" s="7"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -2086,7 +2252,7 @@
       <c r="A93" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B93" s="8"/>
+      <c r="B93" s="7"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -2095,7 +2261,7 @@
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B94" s="8"/>
+      <c r="B94" s="7"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -2104,7 +2270,7 @@
       <c r="A95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B95" s="8"/>
+      <c r="B95" s="7"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -2113,7 +2279,7 @@
       <c r="A96" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B96" s="8"/>
+      <c r="B96" s="7"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -2122,7 +2288,7 @@
       <c r="A97" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B97" s="8"/>
+      <c r="B97" s="7"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -2131,7 +2297,7 @@
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="8"/>
+      <c r="B98" s="7"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -2140,7 +2306,7 @@
       <c r="A99" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B99" s="8"/>
+      <c r="B99" s="7"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -2149,7 +2315,7 @@
       <c r="A100" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B100" s="8"/>
+      <c r="B100" s="7"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -2158,7 +2324,7 @@
       <c r="A101" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="8"/>
+      <c r="B101" s="7"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -2167,7 +2333,7 @@
       <c r="A102" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="8"/>
+      <c r="B102" s="7"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -2176,7 +2342,7 @@
       <c r="A103" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B103" s="8"/>
+      <c r="B103" s="7"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -2185,7 +2351,7 @@
       <c r="A104" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B104" s="8"/>
+      <c r="B104" s="7"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -2194,7 +2360,7 @@
       <c r="A105" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B105" s="8"/>
+      <c r="B105" s="7"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -2203,7 +2369,7 @@
       <c r="A106" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B106" s="8"/>
+      <c r="B106" s="7"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -2212,7 +2378,7 @@
       <c r="A107" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B107" s="8"/>
+      <c r="B107" s="7"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -2221,7 +2387,7 @@
       <c r="A108" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B108" s="8"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -2230,7 +2396,7 @@
       <c r="A109" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="7"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -2239,7 +2405,7 @@
       <c r="A110" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B110" s="8"/>
+      <c r="B110" s="7"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -2248,7 +2414,7 @@
       <c r="A111" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B111" s="8"/>
+      <c r="B111" s="7"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -2257,7 +2423,7 @@
       <c r="A112" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B112" s="8"/>
+      <c r="B112" s="7"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -2266,7 +2432,7 @@
       <c r="A113" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="8"/>
+      <c r="B113" s="7"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -2275,7 +2441,7 @@
       <c r="A114" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B114" s="8"/>
+      <c r="B114" s="7"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -2284,7 +2450,7 @@
       <c r="A115" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B115" s="8"/>
+      <c r="B115" s="7"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -2293,7 +2459,7 @@
       <c r="A116" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B116" s="8"/>
+      <c r="B116" s="7"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -2302,7 +2468,7 @@
       <c r="A117" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B117" s="8"/>
+      <c r="B117" s="7"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -2311,7 +2477,7 @@
       <c r="A118" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B118" s="8"/>
+      <c r="B118" s="7"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -2320,7 +2486,7 @@
       <c r="A119" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B119" s="8"/>
+      <c r="B119" s="7"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -2329,7 +2495,7 @@
       <c r="A120" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B120" s="8"/>
+      <c r="B120" s="7"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -2338,7 +2504,7 @@
       <c r="A121" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B121" s="8"/>
+      <c r="B121" s="7"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -2347,7 +2513,7 @@
       <c r="A122" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B122" s="8"/>
+      <c r="B122" s="7"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -2356,7 +2522,7 @@
       <c r="A123" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B123" s="8"/>
+      <c r="B123" s="7"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -2365,7 +2531,7 @@
       <c r="A124" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B124" s="8"/>
+      <c r="B124" s="7"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -2374,7 +2540,7 @@
       <c r="A125" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B125" s="8"/>
+      <c r="B125" s="7"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -2383,7 +2549,7 @@
       <c r="A126" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B126" s="8"/>
+      <c r="B126" s="7"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -2392,7 +2558,7 @@
       <c r="A127" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B127" s="8"/>
+      <c r="B127" s="7"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -2401,7 +2567,7 @@
       <c r="A128" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B128" s="8"/>
+      <c r="B128" s="7"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -2410,7 +2576,7 @@
       <c r="A129" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B129" s="8"/>
+      <c r="B129" s="7"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -2419,7 +2585,7 @@
       <c r="A130" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B130" s="8"/>
+      <c r="B130" s="7"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -2428,7 +2594,7 @@
       <c r="A131" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B131" s="8"/>
+      <c r="B131" s="7"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -2437,7 +2603,7 @@
       <c r="A132" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B132" s="8"/>
+      <c r="B132" s="7"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -2446,7 +2612,7 @@
       <c r="A133" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B133" s="8"/>
+      <c r="B133" s="7"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -2455,7 +2621,7 @@
       <c r="A134" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B134" s="8"/>
+      <c r="B134" s="7"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -2464,7 +2630,7 @@
       <c r="A135" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="7"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -2473,7 +2639,7 @@
       <c r="A136" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B136" s="8"/>
+      <c r="B136" s="7"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -2482,7 +2648,7 @@
       <c r="A137" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B137" s="8"/>
+      <c r="B137" s="7"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -2491,7 +2657,7 @@
       <c r="A138" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B138" s="8"/>
+      <c r="B138" s="7"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -2500,7 +2666,7 @@
       <c r="A139" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B139" s="8"/>
+      <c r="B139" s="7"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -2509,7 +2675,7 @@
       <c r="A140" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B140" s="8"/>
+      <c r="B140" s="7"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -2518,7 +2684,7 @@
       <c r="A141" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B141" s="8"/>
+      <c r="B141" s="7"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -2527,7 +2693,7 @@
       <c r="A142" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B142" s="8"/>
+      <c r="B142" s="7"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -2536,7 +2702,7 @@
       <c r="A143" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B143" s="8"/>
+      <c r="B143" s="7"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -2545,7 +2711,7 @@
       <c r="A144" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B144" s="8"/>
+      <c r="B144" s="7"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -2554,7 +2720,7 @@
       <c r="A145" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B145" s="8"/>
+      <c r="B145" s="7"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -2563,7 +2729,7 @@
       <c r="A146" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="8"/>
+      <c r="B146" s="7"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -2572,7 +2738,7 @@
       <c r="A147" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B147" s="8"/>
+      <c r="B147" s="7"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -2581,7 +2747,7 @@
       <c r="A148" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B148" s="8"/>
+      <c r="B148" s="7"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -2590,7 +2756,7 @@
       <c r="A149" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B149" s="8"/>
+      <c r="B149" s="7"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -2599,7 +2765,7 @@
       <c r="A150" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B150" s="8"/>
+      <c r="B150" s="7"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -2608,7 +2774,7 @@
       <c r="A151" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B151" s="8"/>
+      <c r="B151" s="7"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -2617,7 +2783,7 @@
       <c r="A152" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B152" s="8"/>
+      <c r="B152" s="7"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -2626,7 +2792,7 @@
       <c r="A153" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B153" s="8"/>
+      <c r="B153" s="7"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -2635,7 +2801,7 @@
       <c r="A154" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B154" s="8"/>
+      <c r="B154" s="7"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -2644,7 +2810,7 @@
       <c r="A155" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B155" s="8"/>
+      <c r="B155" s="7"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -2653,7 +2819,7 @@
       <c r="A156" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B156" s="8"/>
+      <c r="B156" s="7"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -2662,7 +2828,7 @@
       <c r="A157" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B157" s="8"/>
+      <c r="B157" s="7"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -2671,7 +2837,7 @@
       <c r="A158" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B158" s="8"/>
+      <c r="B158" s="7"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -2680,7 +2846,7 @@
       <c r="A159" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B159" s="8"/>
+      <c r="B159" s="7"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -2689,7 +2855,7 @@
       <c r="A160" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B160" s="8"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -2698,7 +2864,7 @@
       <c r="A161" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="7"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -2707,7 +2873,7 @@
       <c r="A162" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B162" s="8"/>
+      <c r="B162" s="7"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -2716,7 +2882,7 @@
       <c r="A163" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B163" s="8"/>
+      <c r="B163" s="7"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -2725,7 +2891,7 @@
       <c r="A164" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B164" s="8"/>
+      <c r="B164" s="7"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -2734,7 +2900,7 @@
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B165" s="8"/>
+      <c r="B165" s="7"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -2743,7 +2909,7 @@
       <c r="A166" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B166" s="8"/>
+      <c r="B166" s="7"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -2752,7 +2918,7 @@
       <c r="A167" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B167" s="8"/>
+      <c r="B167" s="7"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -2761,7 +2927,7 @@
       <c r="A168" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B168" s="8"/>
+      <c r="B168" s="7"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -2770,7 +2936,7 @@
       <c r="A169" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B169" s="8"/>
+      <c r="B169" s="7"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -2779,7 +2945,7 @@
       <c r="A170" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B170" s="8"/>
+      <c r="B170" s="7"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -2788,7 +2954,7 @@
       <c r="A171" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B171" s="8"/>
+      <c r="B171" s="7"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -2797,7 +2963,7 @@
       <c r="A172" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B172" s="8"/>
+      <c r="B172" s="7"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -2806,7 +2972,7 @@
       <c r="A173" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B173" s="8"/>
+      <c r="B173" s="7"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -2815,7 +2981,7 @@
       <c r="A174" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B174" s="8"/>
+      <c r="B174" s="7"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -2824,7 +2990,7 @@
       <c r="A175" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B175" s="8"/>
+      <c r="B175" s="7"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -2833,7 +2999,7 @@
       <c r="A176" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B176" s="8"/>
+      <c r="B176" s="7"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -2842,7 +3008,7 @@
       <c r="A177" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B177" s="8"/>
+      <c r="B177" s="7"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -2851,7 +3017,7 @@
       <c r="A178" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B178" s="8"/>
+      <c r="B178" s="7"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -2860,7 +3026,7 @@
       <c r="A179" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B179" s="8"/>
+      <c r="B179" s="7"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -2869,7 +3035,7 @@
       <c r="A180" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B180" s="8"/>
+      <c r="B180" s="7"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -2878,7 +3044,7 @@
       <c r="A181" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B181" s="8"/>
+      <c r="B181" s="7"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -2887,7 +3053,7 @@
       <c r="A182" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B182" s="8"/>
+      <c r="B182" s="7"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -2896,7 +3062,7 @@
       <c r="A183" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B183" s="8"/>
+      <c r="B183" s="7"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -2905,7 +3071,7 @@
       <c r="A184" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B184" s="8"/>
+      <c r="B184" s="7"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -2914,7 +3080,7 @@
       <c r="A185" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B185" s="8"/>
+      <c r="B185" s="7"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -2923,7 +3089,7 @@
       <c r="A186" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B186" s="8"/>
+      <c r="B186" s="7"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -2932,7 +3098,7 @@
       <c r="A187" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="7"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -2941,7 +3107,7 @@
       <c r="A188" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B188" s="8"/>
+      <c r="B188" s="7"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -2950,7 +3116,7 @@
       <c r="A189" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B189" s="8"/>
+      <c r="B189" s="7"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -2959,7 +3125,7 @@
       <c r="A190" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B190" s="8"/>
+      <c r="B190" s="7"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -2968,7 +3134,7 @@
       <c r="A191" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B191" s="8"/>
+      <c r="B191" s="7"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -2977,7 +3143,7 @@
       <c r="A192" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B192" s="8"/>
+      <c r="B192" s="7"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -2986,7 +3152,7 @@
       <c r="A193" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B193" s="8"/>
+      <c r="B193" s="7"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -2995,7 +3161,7 @@
       <c r="A194" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B194" s="8"/>
+      <c r="B194" s="7"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -3004,7 +3170,7 @@
       <c r="A195" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B195" s="8"/>
+      <c r="B195" s="7"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -3013,7 +3179,7 @@
       <c r="A196" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B196" s="8"/>
+      <c r="B196" s="7"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -3022,7 +3188,7 @@
       <c r="A197" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B197" s="8"/>
+      <c r="B197" s="7"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -3031,7 +3197,7 @@
       <c r="A198" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B198" s="8"/>
+      <c r="B198" s="7"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -3040,7 +3206,7 @@
       <c r="A199" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B199" s="8"/>
+      <c r="B199" s="7"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -3049,7 +3215,7 @@
       <c r="A200" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B200" s="8"/>
+      <c r="B200" s="7"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -3058,7 +3224,7 @@
       <c r="A201" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B201" s="8"/>
+      <c r="B201" s="7"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -3067,7 +3233,7 @@
       <c r="A202" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B202" s="8"/>
+      <c r="B202" s="7"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -3076,7 +3242,7 @@
       <c r="A203" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B203" s="8"/>
+      <c r="B203" s="7"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -3085,7 +3251,7 @@
       <c r="A204" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B204" s="8"/>
+      <c r="B204" s="7"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -3094,7 +3260,7 @@
       <c r="A205" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B205" s="8"/>
+      <c r="B205" s="7"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -3103,7 +3269,7 @@
       <c r="A206" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B206" s="8"/>
+      <c r="B206" s="7"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -3112,7 +3278,7 @@
       <c r="A207" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B207" s="8"/>
+      <c r="B207" s="7"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -3121,7 +3287,7 @@
       <c r="A208" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B208" s="8"/>
+      <c r="B208" s="7"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -3130,7 +3296,7 @@
       <c r="A209" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B209" s="8"/>
+      <c r="B209" s="7"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -3139,7 +3305,7 @@
       <c r="A210" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B210" s="8"/>
+      <c r="B210" s="7"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -3148,7 +3314,7 @@
       <c r="A211" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B211" s="8"/>
+      <c r="B211" s="7"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -3157,7 +3323,7 @@
       <c r="A212" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B212" s="8"/>
+      <c r="B212" s="7"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -3166,7 +3332,7 @@
       <c r="A213" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="7"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -3175,7 +3341,7 @@
       <c r="A214" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B214" s="8"/>
+      <c r="B214" s="7"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -3184,7 +3350,7 @@
       <c r="A215" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B215" s="8"/>
+      <c r="B215" s="7"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -3193,7 +3359,7 @@
       <c r="A216" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B216" s="8"/>
+      <c r="B216" s="7"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -3202,7 +3368,7 @@
       <c r="A217" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B217" s="8"/>
+      <c r="B217" s="7"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -3211,7 +3377,7 @@
       <c r="A218" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B218" s="8"/>
+      <c r="B218" s="7"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -3250,4 +3416,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="L1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="L3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="L4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A17"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>INDIRECT(F2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>$L$1:$L$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="G3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="G4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="G5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="G6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="G7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E14">
+      <formula1>100</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14">
+      <formula1>50000</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C14">
+      <formula1>ISNUMBER(FIND("@",C2:C14))</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Invalid date entered" promptTitle="Input date" prompt="Enter a valid date" sqref="B2:B14">
+      <formula1>32883</formula1>
+      <formula2>36159</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" errorStyle="warning" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Input length &gt; 15" promptTitle="Input" prompt="Enter the name" sqref="A2:A14">
+      <formula1>15</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>